--- a/document/Flowการอนุมัติออนไลน์_(24-03-25).xlsx
+++ b/document/Flowการอนุมัติออนไลน์_(24-03-25).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\belink-system\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6DAF4D-C80C-4DCF-B217-8777787F6CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487BAC5A-6088-48A7-8CC5-C09B4F5139DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="855" firstSheet="16" activeTab="17" xr2:uid="{3A2BA067-674C-4C6C-8D1F-D3AE584BAB7B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="855" firstSheet="11" activeTab="15" xr2:uid="{3A2BA067-674C-4C6C-8D1F-D3AE584BAB7B}"/>
   </bookViews>
   <sheets>
     <sheet name="ยังไม่เสร็จ &gt;&gt;" sheetId="40" r:id="rId1"/>
@@ -4945,6 +4945,9 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4963,9 +4966,6 @@
     <xf numFmtId="167" fontId="29" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5059,6 +5059,15 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5087,15 +5096,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5917,8 +5917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11413526" y="5963932"/>
-          <a:ext cx="3826474" cy="2790743"/>
+          <a:off x="13974638" y="6376600"/>
+          <a:ext cx="4174074" cy="2840223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22103,7 +22103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF68D9E-6FAC-4AE5-A51E-3B67CD025FFE}">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -22488,11 +22488,11 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.796875" defaultRowHeight="24.6"/>
@@ -24752,7 +24752,7 @@
   </sheetPr>
   <dimension ref="A2:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -25277,7 +25277,7 @@
   </sheetPr>
   <dimension ref="A2:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -31840,30 +31840,30 @@
     </row>
     <row r="2" spans="1:15" ht="23.25" customHeight="1">
       <c r="A2" s="117"/>
-      <c r="B2" s="443" t="s">
+      <c r="B2" s="446" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="445"/>
+      <c r="C2" s="447"/>
+      <c r="D2" s="447"/>
+      <c r="E2" s="447"/>
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="447"/>
+      <c r="I2" s="448"/>
       <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1">
       <c r="A3" s="117"/>
-      <c r="B3" s="446" t="s">
+      <c r="B3" s="449" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="447"/>
-      <c r="D3" s="447"/>
-      <c r="E3" s="447"/>
-      <c r="F3" s="447"/>
-      <c r="G3" s="447"/>
-      <c r="H3" s="447"/>
-      <c r="I3" s="448"/>
+      <c r="C3" s="450"/>
+      <c r="D3" s="450"/>
+      <c r="E3" s="450"/>
+      <c r="F3" s="450"/>
+      <c r="G3" s="450"/>
+      <c r="H3" s="450"/>
+      <c r="I3" s="451"/>
       <c r="J3" s="117"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
@@ -32178,10 +32178,10 @@
     </row>
     <row r="21" spans="1:15" ht="26.25" customHeight="1">
       <c r="A21" s="117"/>
-      <c r="B21" s="449" t="s">
+      <c r="B21" s="452" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="450"/>
+      <c r="C21" s="453"/>
       <c r="D21" s="141"/>
       <c r="E21" s="135">
         <f>SUM(E8:E20)</f>
@@ -32234,10 +32234,10 @@
       </c>
       <c r="C24" s="117"/>
       <c r="D24" s="117"/>
-      <c r="E24" s="451">
+      <c r="E24" s="454">
         <v>0</v>
       </c>
-      <c r="F24" s="451"/>
+      <c r="F24" s="454"/>
       <c r="G24" s="143" t="s">
         <v>114</v>
       </c>
@@ -32252,11 +32252,11 @@
       </c>
       <c r="C25" s="117"/>
       <c r="D25" s="117"/>
-      <c r="E25" s="452">
+      <c r="E25" s="455">
         <f>+H21</f>
         <v>0</v>
       </c>
-      <c r="F25" s="452"/>
+      <c r="F25" s="455"/>
       <c r="G25" s="143" t="s">
         <v>114</v>
       </c>
@@ -32331,11 +32331,11 @@
       <c r="D30" s="117"/>
       <c r="E30" s="117"/>
       <c r="F30" s="117"/>
-      <c r="G30" s="453" t="s">
+      <c r="G30" s="443" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="453"/>
-      <c r="I30" s="454"/>
+      <c r="H30" s="443"/>
+      <c r="I30" s="444"/>
       <c r="J30" s="151"/>
     </row>
     <row r="31" spans="1:15" ht="24">
@@ -32409,11 +32409,11 @@
       <c r="D36" s="159"/>
       <c r="E36" s="160"/>
       <c r="F36" s="117"/>
-      <c r="G36" s="453" t="s">
+      <c r="G36" s="443" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="453"/>
-      <c r="I36" s="454"/>
+      <c r="H36" s="443"/>
+      <c r="I36" s="444"/>
       <c r="J36" s="117"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1">
@@ -32447,10 +32447,10 @@
       <c r="B39" s="161"/>
       <c r="C39" s="162"/>
       <c r="D39" s="162"/>
-      <c r="E39" s="455"/>
-      <c r="F39" s="455"/>
-      <c r="G39" s="455"/>
-      <c r="H39" s="455"/>
+      <c r="E39" s="445"/>
+      <c r="F39" s="445"/>
+      <c r="G39" s="445"/>
+      <c r="H39" s="445"/>
       <c r="I39" s="163"/>
       <c r="J39" s="117"/>
     </row>
@@ -32468,17 +32468,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.1" header="0.25" footer="0.33"/>
@@ -34071,35 +34071,35 @@
     </row>
     <row r="2" spans="2:21" ht="51.75" customHeight="1" thickBot="1">
       <c r="B2" s="250"/>
-      <c r="C2" s="408" t="s">
+      <c r="C2" s="409" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="408"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="408"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
+      <c r="D2" s="409"/>
+      <c r="E2" s="409"/>
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="409"/>
+      <c r="I2" s="409"/>
+      <c r="J2" s="409"/>
       <c r="K2" s="250"/>
       <c r="M2" s="250"/>
-      <c r="N2" s="408" t="s">
+      <c r="N2" s="409" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="408"/>
-      <c r="P2" s="408"/>
-      <c r="Q2" s="408"/>
-      <c r="R2" s="408"/>
-      <c r="S2" s="408"/>
-      <c r="T2" s="408"/>
-      <c r="U2" s="408"/>
+      <c r="O2" s="409"/>
+      <c r="P2" s="409"/>
+      <c r="Q2" s="409"/>
+      <c r="R2" s="409"/>
+      <c r="S2" s="409"/>
+      <c r="T2" s="409"/>
+      <c r="U2" s="409"/>
     </row>
     <row r="3" spans="2:21" ht="27.75" customHeight="1">
       <c r="B3" s="250"/>
-      <c r="C3" s="409" t="s">
+      <c r="C3" s="410" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="409"/>
+      <c r="D3" s="410"/>
       <c r="E3" s="252"/>
       <c r="F3" s="252"/>
       <c r="G3" s="252"/>
@@ -34110,11 +34110,11 @@
       <c r="J3" s="252"/>
       <c r="K3" s="250"/>
       <c r="M3" s="250"/>
-      <c r="N3" s="409" t="str">
+      <c r="N3" s="410" t="str">
         <f>C3</f>
         <v>ชื่อลูกค้า</v>
       </c>
-      <c r="O3" s="409"/>
+      <c r="O3" s="410"/>
       <c r="P3" s="252"/>
       <c r="Q3" s="252"/>
       <c r="R3" s="401" t="s">
@@ -34126,10 +34126,10 @@
     </row>
     <row r="4" spans="2:21" ht="27.75" customHeight="1">
       <c r="B4" s="250"/>
-      <c r="C4" s="410" t="s">
+      <c r="C4" s="411" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="410"/>
+      <c r="D4" s="411"/>
       <c r="E4" s="253"/>
       <c r="F4" s="253"/>
       <c r="G4" s="253"/>
@@ -34140,11 +34140,11 @@
       <c r="J4" s="252"/>
       <c r="K4" s="250"/>
       <c r="M4" s="250"/>
-      <c r="N4" s="410" t="str">
+      <c r="N4" s="411" t="str">
         <f t="shared" ref="N4:N8" si="0">C4</f>
         <v>เลขที่ SO</v>
       </c>
-      <c r="O4" s="410"/>
+      <c r="O4" s="411"/>
       <c r="P4" s="253"/>
       <c r="Q4" s="253"/>
       <c r="R4" s="399" t="s">
@@ -34156,10 +34156,10 @@
     </row>
     <row r="5" spans="2:21" ht="27">
       <c r="B5" s="250"/>
-      <c r="C5" s="410" t="s">
+      <c r="C5" s="411" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="410"/>
+      <c r="D5" s="411"/>
       <c r="E5" s="254"/>
       <c r="F5" s="254"/>
       <c r="G5" s="254"/>
@@ -34172,11 +34172,11 @@
       </c>
       <c r="K5" s="250"/>
       <c r="M5" s="250"/>
-      <c r="N5" s="410" t="str">
+      <c r="N5" s="411" t="str">
         <f t="shared" si="0"/>
         <v>พนักงานขาย</v>
       </c>
-      <c r="O5" s="410"/>
+      <c r="O5" s="411"/>
       <c r="P5" s="254"/>
       <c r="Q5" s="254"/>
       <c r="R5" s="399" t="s">
@@ -34188,10 +34188,10 @@
     </row>
     <row r="6" spans="2:21" ht="27">
       <c r="B6" s="250"/>
-      <c r="C6" s="410" t="s">
+      <c r="C6" s="411" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="410"/>
+      <c r="D6" s="411"/>
       <c r="E6" s="256"/>
       <c r="F6" s="256"/>
       <c r="G6" s="256"/>
@@ -34204,11 +34204,11 @@
       </c>
       <c r="K6" s="250"/>
       <c r="M6" s="250"/>
-      <c r="N6" s="410" t="str">
+      <c r="N6" s="411" t="str">
         <f t="shared" si="0"/>
         <v>สินค้า</v>
       </c>
-      <c r="O6" s="410"/>
+      <c r="O6" s="411"/>
       <c r="P6" s="256"/>
       <c r="Q6" s="256"/>
       <c r="R6" s="399" t="s">
@@ -34220,10 +34220,10 @@
     </row>
     <row r="7" spans="2:21" ht="27">
       <c r="B7" s="250"/>
-      <c r="C7" s="410" t="s">
+      <c r="C7" s="411" t="s">
         <v>585</v>
       </c>
-      <c r="D7" s="410"/>
+      <c r="D7" s="411"/>
       <c r="E7" s="257"/>
       <c r="F7" s="257"/>
       <c r="G7" s="257"/>
@@ -34236,11 +34236,11 @@
       </c>
       <c r="K7" s="250"/>
       <c r="M7" s="250"/>
-      <c r="N7" s="410" t="str">
+      <c r="N7" s="411" t="str">
         <f t="shared" si="0"/>
         <v>ชื่องาน</v>
       </c>
-      <c r="O7" s="410"/>
+      <c r="O7" s="411"/>
       <c r="P7" s="257"/>
       <c r="Q7" s="257"/>
       <c r="R7" s="399" t="s">
@@ -34252,10 +34252,10 @@
     </row>
     <row r="8" spans="2:21" ht="27">
       <c r="B8" s="250"/>
-      <c r="C8" s="410" t="s">
+      <c r="C8" s="411" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="410"/>
+      <c r="D8" s="411"/>
       <c r="E8" s="259"/>
       <c r="F8" s="259"/>
       <c r="G8" s="259"/>
@@ -34268,11 +34268,11 @@
       </c>
       <c r="K8" s="250"/>
       <c r="M8" s="250"/>
-      <c r="N8" s="410" t="str">
+      <c r="N8" s="411" t="str">
         <f t="shared" si="0"/>
         <v>ชื่อตามการขาย</v>
       </c>
-      <c r="O8" s="410"/>
+      <c r="O8" s="411"/>
       <c r="P8" s="259"/>
       <c r="Q8" s="259"/>
       <c r="R8" s="399" t="s">
@@ -34358,12 +34358,12 @@
       <c r="C12" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="405" t="s">
+      <c r="D12" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="406"/>
-      <c r="F12" s="406"/>
-      <c r="G12" s="407"/>
+      <c r="E12" s="407"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="408"/>
       <c r="H12" s="265" t="s">
         <v>304</v>
       </c>
@@ -34378,10 +34378,10 @@
       <c r="N12" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="405" t="s">
+      <c r="O12" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="406"/>
+      <c r="P12" s="407"/>
       <c r="Q12" s="265" t="s">
         <v>204</v>
       </c>
@@ -34822,12 +34822,12 @@
       <c r="C26" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="405" t="s">
+      <c r="D26" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="406"/>
-      <c r="F26" s="406"/>
-      <c r="G26" s="407"/>
+      <c r="E26" s="407"/>
+      <c r="F26" s="407"/>
+      <c r="G26" s="408"/>
       <c r="H26" s="265" t="s">
         <v>304</v>
       </c>
@@ -34843,10 +34843,10 @@
         <f>N$12</f>
         <v>No.</v>
       </c>
-      <c r="O26" s="405" t="s">
+      <c r="O26" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="P26" s="406"/>
+      <c r="P26" s="407"/>
       <c r="Q26" s="265" t="str">
         <f>Q$12</f>
         <v>งบประมาณ</v>
@@ -35215,12 +35215,12 @@
       <c r="C40" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="405" t="s">
+      <c r="D40" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="406"/>
-      <c r="F40" s="406"/>
-      <c r="G40" s="407"/>
+      <c r="E40" s="407"/>
+      <c r="F40" s="407"/>
+      <c r="G40" s="408"/>
       <c r="H40" s="265" t="s">
         <v>304</v>
       </c>
@@ -35236,10 +35236,10 @@
         <f>N$12</f>
         <v>No.</v>
       </c>
-      <c r="O40" s="405" t="s">
+      <c r="O40" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="P40" s="406"/>
+      <c r="P40" s="407"/>
       <c r="Q40" s="265" t="str">
         <f>Q$12</f>
         <v>งบประมาณ</v>
@@ -35608,12 +35608,12 @@
       <c r="C54" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="405" t="s">
+      <c r="D54" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="406"/>
-      <c r="F54" s="406"/>
-      <c r="G54" s="407"/>
+      <c r="E54" s="407"/>
+      <c r="F54" s="407"/>
+      <c r="G54" s="408"/>
       <c r="H54" s="265" t="s">
         <v>304</v>
       </c>
@@ -35629,10 +35629,10 @@
         <f>N$12</f>
         <v>No.</v>
       </c>
-      <c r="O54" s="405" t="s">
+      <c r="O54" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="P54" s="406"/>
+      <c r="P54" s="407"/>
       <c r="Q54" s="265" t="str">
         <f>Q$12</f>
         <v>งบประมาณ</v>
@@ -36001,12 +36001,12 @@
       <c r="C68" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="405" t="s">
+      <c r="D68" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="406"/>
-      <c r="F68" s="406"/>
-      <c r="G68" s="407"/>
+      <c r="E68" s="407"/>
+      <c r="F68" s="407"/>
+      <c r="G68" s="408"/>
       <c r="H68" s="265" t="s">
         <v>304</v>
       </c>
@@ -36022,10 +36022,10 @@
         <f>N$12</f>
         <v>No.</v>
       </c>
-      <c r="O68" s="405" t="s">
+      <c r="O68" s="406" t="s">
         <v>47</v>
       </c>
-      <c r="P68" s="406"/>
+      <c r="P68" s="407"/>
       <c r="Q68" s="265" t="str">
         <f>Q$12</f>
         <v>งบประมาณ</v>
@@ -36808,15 +36808,15 @@
       <c r="P100" s="300"/>
     </row>
     <row r="101" spans="1:21" s="294" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C101" s="411"/>
-      <c r="D101" s="411"/>
-      <c r="E101" s="411"/>
+      <c r="C101" s="405"/>
+      <c r="D101" s="405"/>
+      <c r="E101" s="405"/>
       <c r="F101" s="302"/>
       <c r="G101" s="302"/>
       <c r="L101" s="398"/>
-      <c r="N101" s="411"/>
-      <c r="O101" s="411"/>
-      <c r="P101" s="411"/>
+      <c r="N101" s="405"/>
+      <c r="O101" s="405"/>
+      <c r="P101" s="405"/>
     </row>
     <row r="102" spans="1:21" s="294" customFormat="1" ht="23.25" customHeight="1">
       <c r="C102" s="303"/>
@@ -37028,15 +37028,15 @@
       <c r="P122" s="300"/>
     </row>
     <row r="123" spans="3:16" s="294" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C123" s="411"/>
-      <c r="D123" s="411"/>
-      <c r="E123" s="411"/>
+      <c r="C123" s="405"/>
+      <c r="D123" s="405"/>
+      <c r="E123" s="405"/>
       <c r="F123" s="302"/>
       <c r="G123" s="302"/>
       <c r="L123" s="398"/>
-      <c r="N123" s="411"/>
-      <c r="O123" s="411"/>
-      <c r="P123" s="411"/>
+      <c r="N123" s="405"/>
+      <c r="O123" s="405"/>
+      <c r="P123" s="405"/>
     </row>
     <row r="124" spans="3:16" s="294" customFormat="1" ht="23.25" customHeight="1">
       <c r="C124" s="304"/>
@@ -37215,15 +37215,15 @@
       <c r="P141" s="307"/>
     </row>
     <row r="142" spans="3:16" s="294" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C142" s="411"/>
-      <c r="D142" s="411"/>
-      <c r="E142" s="411"/>
+      <c r="C142" s="405"/>
+      <c r="D142" s="405"/>
+      <c r="E142" s="405"/>
       <c r="F142" s="302"/>
       <c r="G142" s="302"/>
       <c r="L142" s="398"/>
-      <c r="N142" s="411"/>
-      <c r="O142" s="411"/>
-      <c r="P142" s="411"/>
+      <c r="N142" s="405"/>
+      <c r="O142" s="405"/>
+      <c r="P142" s="405"/>
     </row>
     <row r="143" spans="3:16" s="294" customFormat="1" ht="23.25" customHeight="1">
       <c r="C143" s="304"/>
@@ -37425,20 +37425,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="N123:P123"/>
-    <mergeCell ref="N142:P142"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="D54:G54"/>
     <mergeCell ref="D68:G68"/>
     <mergeCell ref="N2:U2"/>
@@ -37455,6 +37441,20 @@
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="N123:P123"/>
+    <mergeCell ref="N142:P142"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C142:E142"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
